--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,27 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
-  <x:si>
-    <x:t>foo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>poo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Feb 03 2015 23:17:29 GMT+0200 (Финляндия (зима))</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23" count="23">
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1tgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2tgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>undefined</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>yteuetyue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tyuetyuetyuety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etyuetyuety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uyiyuiryuiryu yu ryiu iryu iryu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iryuiryuiryu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uiryui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tyueytuetyuetyue</x:t>
+  </x:si>
+  <x:si>
+    <x:t> tyu etyu ety uety utye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tyuetyuetyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etyuety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5675673567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u ety uety ue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>urtyuetyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etyu ety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ty uety uety uety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7iryuiryuir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ruyuiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yuiryuiryuiryuiryu</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -416,13 +473,195 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23" count="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="37">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -92,6 +92,39 @@
   </x:si>
   <x:si>
     <x:t>yuiryuiryuiryuiryu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhgjhkfkfhjkfhjfkjfhjkfhjkfhj fhjk fui y jhgjhkfkfhjkfhjfkjfhjkfhjkfhj fhjk fui y </x:t>
+  </x:si>
+  <x:si>
+    <x:t>hj kfhjk fhjk fj kfhjk fhjkf hjk fhjk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhk hfj kfhjk jh k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>467847846m78 67 84678 467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67846784678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4678467846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>678467846784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r67867,867 867 8e678 e67 8678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67 867 8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -664,6 +697,118 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="37">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41" count="41">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -125,6 +125,24 @@
   </x:si>
   <x:si>
     <x:t>67 867 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ueuty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rtutr@yhejhetyjt.yrfuk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tyu ety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111111111111111111111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11111111</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -809,6 +827,48 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41" count="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43" count="43">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -869,6 +869,20 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43" count="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47" count="47">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -143,6 +143,18 @@
   </x:si>
   <x:si>
     <x:t>11111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hklhl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>njh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -883,6 +895,34 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/data.xlsx
+++ b/www/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47" count="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50" count="50">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -155,6 +155,15 @@
   </x:si>
   <x:si>
     <x:t>njh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35675jпорапро</x:t>
+  </x:si>
+  <x:si>
+    <x:t>657356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etyuetyuапорпопвр</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -923,6 +932,62 @@
         <x:v>46</x:v>
       </x:c>
     </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
